--- a/data/respirometry/deep/final_rates/800_rates.xlsx
+++ b/data/respirometry/deep/final_rates/800_rates.xlsx
@@ -578,16 +578,16 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1405756097560976</v>
       </c>
       <c r="V2">
         <v>0.000247847478474785</v>
       </c>
       <c r="Z2">
-        <v>-0.1354667984901035</v>
+        <v>-0.123305670807127</v>
       </c>
       <c r="AB2">
-        <v>-546.5732365878612</v>
+        <v>-497.5062549190777</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="AD2">
-        <v>-546.5732365878612</v>
+        <v>-497.5062549190777</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.144009756097561</v>
       </c>
       <c r="V3">
         <v>0.000151796696538394</v>
       </c>
       <c r="Z3">
-        <v>-0.1598091991844953</v>
+        <v>-0.1490163416000111</v>
       </c>
       <c r="AB3">
-        <v>-1052.784433580046</v>
+        <v>-981.6836927167273</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="AD3">
-        <v>-1052.784433580046</v>
+        <v>-981.6836927167273</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1462634146341464</v>
       </c>
       <c r="V4">
         <v>0.0001561017395888245</v>
       </c>
       <c r="Z4">
-        <v>-0.09614197087802569</v>
+        <v>-0.09105188390492551</v>
       </c>
       <c r="AB4">
-        <v>-615.8930139488889</v>
+        <v>-583.2855171554029</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="AD4">
-        <v>-615.8930139488889</v>
+        <v>-583.2855171554029</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,16 +839,16 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1500390243902439</v>
       </c>
       <c r="V5">
         <v>0.0001601212440695836</v>
       </c>
       <c r="Z5">
-        <v>-0.1116939548863482</v>
+        <v>-0.1085110853498808</v>
       </c>
       <c r="AB5">
-        <v>-697.5586252490615</v>
+        <v>-677.6807536089675</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="AD5">
-        <v>-697.5586252490615</v>
+        <v>-677.6807536089675</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,16 +926,16 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1463707317073171</v>
       </c>
       <c r="V6">
         <v>0.0001600773150588649</v>
       </c>
       <c r="Z6">
-        <v>-0.06623270005528104</v>
+        <v>-0.06277213655816334</v>
       </c>
       <c r="AB6">
-        <v>-413.7544412893571</v>
+        <v>-392.1363656997887</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="AD6">
-        <v>-413.7544412893571</v>
+        <v>-392.1363656997887</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1465658536585366</v>
       </c>
       <c r="V7">
         <v>0.0002004041468986119</v>
       </c>
       <c r="Z7">
-        <v>-0.1686293825498713</v>
+        <v>-0.1600317884313249</v>
       </c>
       <c r="AB7">
-        <v>-841.4465726359642</v>
+        <v>-798.5452941364925</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="AD7">
-        <v>-841.4465726359642</v>
+        <v>-798.5452941364925</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,16 +1100,16 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1449658536585366</v>
       </c>
       <c r="V8">
         <v>0.0002479133719908628</v>
       </c>
       <c r="Z8">
-        <v>-0.1738045043605251</v>
+        <v>-0.1631424394219268</v>
       </c>
       <c r="AB8">
-        <v>-701.0695024830324</v>
+        <v>-658.0622824489661</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="AD8">
-        <v>-701.0695024830324</v>
+        <v>-658.0622824489661</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1405756097560976</v>
       </c>
       <c r="V10">
         <v>0.000247847478474785</v>
       </c>
       <c r="Z10">
-        <v>0.1854962128725177</v>
+        <v>0.1688438437710505</v>
       </c>
       <c r="AB10">
-        <v>748.4288886618199</v>
+        <v>681.2409180439897</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="AD10">
-        <v>748.4288886618199</v>
+        <v>681.2409180439897</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.144009756097561</v>
       </c>
       <c r="V11">
         <v>0.000151796696538394</v>
       </c>
       <c r="Z11">
-        <v>0.1283812499025586</v>
+        <v>0.1197109070575466</v>
       </c>
       <c r="AB11">
-        <v>845.7446889833146</v>
+        <v>788.6265629454462</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="AD11">
-        <v>845.7446889833146</v>
+        <v>788.6265629454462</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1442,16 +1442,16 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1462634146341464</v>
       </c>
       <c r="V12">
         <v>0.0001561017395888245</v>
       </c>
       <c r="Z12">
-        <v>0.06656270658278682</v>
+        <v>0.0630386477084251</v>
       </c>
       <c r="AB12">
-        <v>426.4059244830615</v>
+        <v>403.830526645445</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="AD12">
-        <v>426.4059244830615</v>
+        <v>403.830526645445</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1529,16 +1529,16 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1500390243902439</v>
       </c>
       <c r="V13">
         <v>0.0001601212440695836</v>
       </c>
       <c r="Z13">
-        <v>0.1072464976400778</v>
+        <v>0.1041903643822058</v>
       </c>
       <c r="AB13">
-        <v>669.7830650970454</v>
+        <v>650.6966954174302</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="AD13">
-        <v>669.7830650970454</v>
+        <v>650.6966954174302</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1616,16 +1616,16 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1463707317073171</v>
       </c>
       <c r="V14">
         <v>0.0001600773150588649</v>
       </c>
       <c r="Z14">
-        <v>0.07602567406612065</v>
+        <v>0.07205344173530225</v>
       </c>
       <c r="AB14">
-        <v>474.9309671902223</v>
+        <v>450.1165059446816</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="AD14">
-        <v>474.9309671902223</v>
+        <v>450.1165059446816</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1703,16 +1703,16 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1465658536585366</v>
       </c>
       <c r="V15">
         <v>0.0002004041468986119</v>
       </c>
       <c r="Z15">
-        <v>0.1651522084048458</v>
+        <v>0.1567318985266043</v>
       </c>
       <c r="AB15">
-        <v>824.0957632897655</v>
+        <v>782.0791183822053</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="AD15">
-        <v>824.0957632897655</v>
+        <v>782.0791183822053</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
@@ -1790,16 +1790,16 @@
         </is>
       </c>
       <c r="T16">
-        <v>0.15444</v>
+        <v>0.1449658536585366</v>
       </c>
       <c r="V16">
         <v>0.0002479133719908628</v>
       </c>
       <c r="Z16">
-        <v>0.3000765182043424</v>
+        <v>0.2816682765110974</v>
       </c>
       <c r="AB16">
-        <v>1210.408764136378</v>
+        <v>1136.156046159054</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="AD16">
-        <v>1210.408764136378</v>
+        <v>1136.156046159054</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="T17">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0.002905235402506414</v>
+        <v>0.002904482945784709</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
